--- a/xlsx/教育_intext.xlsx
+++ b/xlsx/教育_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
   <si>
     <t>教育</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2_(%E5%B0%88%E8%BC%AF)</t>
   </si>
   <si>
-    <t>教育 (專輯)</t>
+    <t>教育 (专辑)</t>
   </si>
   <si>
     <t>政策_政策_加州_教育</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD</t>
   </si>
   <si>
-    <t>傳播</t>
+    <t>传播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%A4%BE%E4%BC%9A</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
+    <t>学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%B8%88</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E4%BD%9C</t>
   </si>
   <si>
-    <t>寫作</t>
+    <t>写作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E4%BD%8D</t>
   </si>
   <si>
-    <t>社會地位</t>
+    <t>社会地位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E</t>
   </si>
   <si>
-    <t>斯賓塞</t>
+    <t>斯宾塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99</t>
   </si>
   <si>
-    <t>啟蒙</t>
+    <t>启蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>六書</t>
+    <t>六书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B4%E9%83%A8</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%A6%AA</t>
   </si>
   <si>
-    <t>母親</t>
+    <t>母亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%A5%B3</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%89%8D%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>學前教育</t>
+    <t>学前教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%A8%9A%E5%9C%92</t>
   </si>
   <si>
-    <t>幼稚園</t>
+    <t>幼稚园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>職業學校</t>
+    <t>职业学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E6%98%A5%E6%9C%9F</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%AD%98%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>通識教育</t>
+    <t>通识教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE</t>
@@ -455,33 +455,30 @@
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E6%8A%80%E8%83%BD</t>
   </si>
   <si>
-    <t>21世紀技能</t>
+    <t>21世纪技能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>另類教育</t>
+    <t>另类教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>民主學校</t>
+    <t>民主学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%AE%B6%E8%87%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>在家自學</t>
+    <t>在家自学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>義務教育</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%9A%84%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
   </si>
   <si>
-    <t>学校</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
@@ -545,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>蘇格蘭教會</t>
+    <t>苏格兰教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%95%99%E8%82%B2%E5%8F%B2</t>
@@ -563,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%AD%B8</t>
   </si>
   <si>
-    <t>社學</t>
+    <t>社学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>義學</t>
+    <t>义学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A6%E9%99%A2</t>
@@ -599,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%AD%A6%E5%B8%9D</t>
   </si>
   <si>
-    <t>漢武帝</t>
+    <t>汉武帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>儒學</t>
+    <t>儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE%E8%80%83%E8%AF%95</t>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%BB%A3%E5%8D%81%E5%9C%8B</t>
   </si>
   <si>
-    <t>五代十國</t>
+    <t>五代十国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%BD%BC</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BF%E5%9C%B0%E7%B4%80%E5%8B%9D</t>
   </si>
   <si>
-    <t>輿地紀勝</t>
+    <t>舆地纪胜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E9%80%82</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%9C%92%E9%9C%B8%E5%87%8C</t>
   </si>
   <si>
-    <t>校園霸凌</t>
+    <t>校园霸凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%95%B7</t>
   </si>
   <si>
-    <t>家長</t>
+    <t>家长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95</t>
@@ -755,19 +746,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
+    <t>苏格拉底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Catherine_Baker</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%B2%83%E5%BE%B7%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>哈沃德·加德納</t>
+    <t>哈沃德·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92%C2%B7%E7%9B%96%E6%89%98</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%B6%AD%C2%B7%E7%B6%AD%E8%B0%B7%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>利維·維谷斯基</t>
+    <t>利维·维谷斯基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ted_Wragg</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E6%80%9D%E4%BA%AE</t>
   </si>
   <si>
-    <t>錢思亮</t>
+    <t>钱思亮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%A6</t>
@@ -1091,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較教育學</t>
+    <t>比较教育学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E4%BC%A0%E6%92%AD%E5%AD%A6</t>
@@ -1109,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AD%B8%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>教學科技</t>
+    <t>教学科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判教育學</t>
+    <t>批判教育学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E5%84%BF%E5%9B%AD</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>高級中學</t>
+    <t>高级中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%A6</t>
@@ -1145,37 +1136,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>國民中學</t>
+    <t>国民中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E8%81%B7%E6%A5%AD%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>高級職業學校</t>
+    <t>高级职业学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>技術學院</t>
+    <t>技术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>專科學校</t>
+    <t>专科学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科技大學</t>
+    <t>科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E7%BF%92%E7%8F%AD</t>
   </si>
   <si>
-    <t>補習班</t>
+    <t>补习班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%83%A8</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E5%85%92%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>幼兒教育</t>
+    <t>幼儿教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -1211,13 +1202,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>大學教育</t>
+    <t>大学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>終身教育</t>
+    <t>终身教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%95%99%E8%82%B2</t>
@@ -1241,31 +1232,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%AE%80</t>
   </si>
   <si>
-    <t>工讀</t>
+    <t>工读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>數學教育</t>
+    <t>数学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>語言教育</t>
+    <t>语言教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>閱讀教育</t>
+    <t>阅读教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>科學教育</t>
+    <t>科学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%95%99%E8%82%B2</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>藝術教育</t>
+    <t>艺术教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%9B%85%E6%95%99%E8%82%B2</t>
@@ -1313,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E7%BF%92</t>
   </si>
   <si>
-    <t>補習</t>
+    <t>补习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%B9%B3%E7%AD%89%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>性別平等教育</t>
+    <t>性别平等教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E8%AF%95%E6%95%99%E8%82%B2</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E9%AB%94%E5%88%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>威權體制教育</t>
+    <t>威权体制教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%95%99%E8%82%B2</t>
@@ -1367,55 +1358,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9B%E8%BF%B0%E6%95%99%E5%AD%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>講述教學法</t>
+    <t>讲述教学法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%95%99%E5%AD%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>直接教學法</t>
+    <t>直接教学法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E5%BC%8F%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>發現式學習</t>
+    <t>发现式学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E6%A1%88%E6%95%99%E5%AD%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>個案教學法</t>
+    <t>个案教学法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%80%A7%E6%95%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判性教學</t>
+    <t>批判性教学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BB%E8%BD%89%E6%95%99%E5%AE%A4</t>
   </si>
   <si>
-    <t>翻轉教室</t>
+    <t>翻转教室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>教科書</t>
+    <t>教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%95%99%E8%82%B2%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>開放教育資源</t>
+    <t>开放教育资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%BC%8F%E8%AA%B2%E7%A8%8B%E7%B6%B2%E9%A0%81</t>
   </si>
   <si>
-    <t>開放式課程網頁</t>
+    <t>开放式课程网页</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E5%BC%80%E6%94%BE%E5%9C%A8%E7%BA%BF%E8%AF%BE%E5%A0%82</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>數位圖書館</t>
+    <t>数位图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E6%AC%8A%E5%88%A9%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>兒童權利公約</t>
+    <t>儿童权利公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%B1%A1%E4%B9%8B</t>
@@ -1481,9 +1472,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
   </si>
   <si>
-    <t>知识</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
   </si>
   <si>
@@ -1499,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%9A%8E%E6%AE%B5</t>
   </si>
   <si>
-    <t>教育階段</t>
+    <t>教育阶段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E5%AD%A6%E6%A0%A1</t>
@@ -1511,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%AD%89%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>中等學校</t>
+    <t>中等学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%AD%89%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>初等學校</t>
+    <t>初等学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -1535,9 +1523,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%B9%A0</t>
   </si>
   <si>
-    <t>学习</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%95%99%E8%82%B2</t>
   </si>
   <si>
@@ -1571,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>俄羅斯教育</t>
+    <t>俄罗斯教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -1601,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>另類學校</t>
+    <t>另类学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%8F%B2</t>
@@ -1613,13 +1598,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>自主學習</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>終身學習</t>
+    <t>终身学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%94%B9%E9%9D%A9</t>
@@ -1631,9 +1613,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育哲學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Glossary_of_education-related_terms</t>
   </si>
   <si>
@@ -1643,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>目錄</t>
+    <t>目录</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_education</t>
@@ -1655,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E8%AF%84%E4%BC%B0</t>
@@ -1721,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>商業教育</t>
+    <t>商业教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chemistry_education</t>
@@ -1733,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>設計教育</t>
+    <t>设计教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economics_education</t>
@@ -1751,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>環境教育</t>
+    <t>环境教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Euthenics</t>
@@ -1775,9 +1754,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>数学教育</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Medical_education</t>
   </si>
   <si>
@@ -1811,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>哲學教育</t>
+    <t>哲学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
@@ -1853,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>中文維基</t>
+    <t>中文维基</t>
   </si>
   <si>
     <t>https://zh.wikiversity.org/wiki/Education</t>
@@ -1871,13 +1847,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>小學教育</t>
+    <t>小学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>中學教育</t>
+    <t>中学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9C%9F%E6%95%99%E8%82%B2</t>
@@ -1895,9 +1871,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>小學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E4%B8%AD%E5%AD%A6</t>
   </si>
   <si>
@@ -1925,13 +1898,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1949,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%95%99%E8%82%B2</t>
@@ -1961,13 +1931,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>亞塞拜然教育</t>
+    <t>亚塞拜然教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>蒙古國教育</t>
+    <t>蒙古国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%95%99%E8%82%B2</t>
@@ -1991,13 +1961,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>朝鮮教育</t>
+    <t>朝鲜教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>吉爾吉斯斯坦教育</t>
+    <t>吉尔吉斯斯坦教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%95%99%E8%82%B2</t>
@@ -2009,19 +1979,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>馬來西亞教育</t>
+    <t>马来西亚教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>馬爾地夫教育</t>
+    <t>马尔地夫教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>尼泊爾教育</t>
+    <t>尼泊尔教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E6%95%99%E8%82%B2</t>
@@ -2033,13 +2003,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>卡達教育</t>
+    <t>卡达教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯教育</t>
+    <t>沙乌地阿拉伯教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%95%99%E8%82%B2</t>
@@ -2051,13 +2021,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>敘利亞教育</t>
+    <t>叙利亚教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>泰國教育</t>
+    <t>泰国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%95%99%E8%82%B2</t>
@@ -2069,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>阿聯酋教育</t>
+    <t>阿联酋教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%95%99%E8%82%B2</t>
@@ -2087,13 +2057,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>中華民國教育</t>
+    <t>中华民国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>臺灣教育</t>
+    <t>台湾教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2</t>
@@ -2105,37 +2075,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>澳門教育</t>
+    <t>澳门教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -2147,19 +2117,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>奧地利教育</t>
+    <t>奥地利教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>丹麥教育</t>
+    <t>丹麦教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>芬蘭教育</t>
+    <t>芬兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -2171,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>冰島教育</t>
+    <t>冰岛教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%95%99%E8%82%B2</t>
@@ -2183,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>荷蘭教育</t>
+    <t>荷兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%95%99%E8%82%B2</t>
@@ -2219,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -2243,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>紐西蘭教育</t>
+    <t>纽西兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A%E6%95%99%E8%82%B2</t>
@@ -2255,175 +2225,175 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%8B%E4%B8%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>臺灣國中教育</t>
+    <t>台湾国中教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/12%E5%B9%B4%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>12年國教</t>
+    <t>12年国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E4%B8%AD%E6%95%99%E8%82%B2%E6%9C%83%E8%80%83</t>
   </si>
   <si>
-    <t>國中教育會考</t>
+    <t>国中教育会考</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%85%A5%E5%AD%B8%E6%8C%87%E5%AE%9A%E7%A7%91%E7%9B%AE%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>大學入學指定科目考試</t>
+    <t>大学入学指定科目考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E6%8A%80%E4%BA%8C%E5%B0%88%E7%B5%B1%E4%B8%80%E5%85%A5%E5%AD%B8%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>四技二專統一入學測驗</t>
+    <t>四技二专统一入学测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E5%AE%9A%E7%A7%91%E7%9B%AE%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>指定科目考試</t>
+    <t>指定科目考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%AD%B8%E7%A7%91%E8%83%BD%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>大學學科能力測驗</t>
+    <t>大学学科能力测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E6%98%9F%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>繁星計畫</t>
+    <t>繁星计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E6%98%9F%E6%8E%A8%E8%96%A6</t>
   </si>
   <si>
-    <t>繁星推薦</t>
+    <t>繁星推荐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E8%AB%8B%E5%85%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>申請入學</t>
+    <t>申请入学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%B9%9D%E5%B9%B4%E5%9C%8B%E6%B0%91%E7%BE%A9%E5%8B%99%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>臺灣九年國民義務教育</t>
+    <t>台湾九年国民义务教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8%E5%AD%B8%E7%94%9F%E5%9F%BA%E6%9C%AC%E5%AD%B8%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>國民中學學生基本學力測驗</t>
+    <t>国民中学学生基本学力测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%AD%E8%81%B7%E5%A4%9A%E5%85%83%E5%85%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>高中職多元入學</t>
+    <t>高中职多元入学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%AD%E5%A4%9A%E5%85%83%E5%85%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>高中多元入學</t>
+    <t>高中多元入学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E5%9E%8B%E9%AB%98%E7%B4%9A%E4%B8%AD%E7%AD%89%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>普通型高級中等學校</t>
+    <t>普通型高级中等学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E5%9E%8B%E9%AB%98%E7%B4%9A%E4%B8%AD%E7%AD%89%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>綜合型高級中等學校</t>
+    <t>综合型高级中等学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%9E%8B%E9%AB%98%E7%B4%9A%E4%B8%AD%E7%AD%89%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>技術型高級中等學校</t>
+    <t>技术型高级中等学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家教育研究院</t>
+    <t>国家教育研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%85%A5%E5%AD%B8%E8%80%83%E8%A9%A6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>大學入學考試中心</t>
+    <t>大学入学考试中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%95%99%E8%82%B2%E5%8F%B2</t>
   </si>
   <si>
-    <t>台灣教育史</t>
+    <t>台湾教育史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F%E5%B8%AB%E7%AF%84%E6%95%99%E8%82%B2%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>台灣日治時期師範教育機構</t>
+    <t>台湾日治时期师范教育机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BC%B7%E7%8F%AD_(%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8)</t>
   </si>
   <si>
-    <t>加強班 (國民中學)</t>
+    <t>加强班 (国民中学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E5%85%A8%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>完全中學</t>
+    <t>完全中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%B1%AC%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>附屬中學</t>
+    <t>附属中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%8F%AD</t>
   </si>
   <si>
-    <t>科學班</t>
+    <t>科学班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E8%BE%A6%E9%AB%98%E4%B8%AD%EF%BC%8C%E7%B8%A3%E5%B8%82%E8%BE%A6%E5%88%9D%E4%B8%AD</t>
   </si>
   <si>
-    <t>省辦高中，縣市辦初中</t>
+    <t>省办高中，县市办初中</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%94%A8%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>代用國民中學</t>
+    <t>代用国民中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%95%99%E8%82%B2%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>台灣教育改革</t>
+    <t>台湾教育改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E4%B8%AD%E5%9B%9B%E7%9C%81%E4%B8%AD</t>
@@ -2459,13 +2429,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%AD%E8%81%B7%E7%A4%BE%E5%8D%80%E5%8C%96</t>
   </si>
   <si>
-    <t>高中職社區化</t>
+    <t>高中职社区化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2483,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -5093,7 +5063,7 @@
         <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5119,10 +5089,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -5148,10 +5118,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5177,10 +5147,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5206,10 +5176,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5235,10 +5205,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G83" t="n">
         <v>16</v>
@@ -5264,10 +5234,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>9</v>
@@ -5293,10 +5263,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -5322,10 +5292,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5351,10 +5321,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5380,10 +5350,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5409,10 +5379,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5438,10 +5408,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5467,10 +5437,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5496,10 +5466,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5525,10 +5495,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5554,10 +5524,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5583,10 +5553,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5612,10 +5582,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5641,10 +5611,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5670,10 +5640,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5699,10 +5669,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5728,10 +5698,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5757,10 +5727,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5786,10 +5756,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5815,10 +5785,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5844,10 +5814,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5873,10 +5843,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5902,10 +5872,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F106" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5931,10 +5901,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5960,10 +5930,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5989,10 +5959,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -6018,10 +5988,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>9</v>
@@ -6047,10 +6017,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6076,10 +6046,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6105,10 +6075,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6134,10 +6104,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6163,10 +6133,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -6192,10 +6162,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6221,10 +6191,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6250,10 +6220,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6279,10 +6249,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -6308,10 +6278,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>9</v>
@@ -6337,10 +6307,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6366,10 +6336,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6395,10 +6365,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6424,10 +6394,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6453,10 +6423,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6482,10 +6452,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6511,10 +6481,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6540,10 +6510,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6569,10 +6539,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6598,10 +6568,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6627,10 +6597,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6656,10 +6626,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6685,10 +6655,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6714,10 +6684,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6743,10 +6713,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6772,10 +6742,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6801,10 +6771,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6830,10 +6800,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6859,10 +6829,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6888,10 +6858,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6917,10 +6887,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6946,10 +6916,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6975,10 +6945,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7004,10 +6974,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7033,10 +7003,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7062,10 +7032,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7091,10 +7061,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7120,10 +7090,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7149,10 +7119,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7178,10 +7148,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7207,10 +7177,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7236,10 +7206,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7265,10 +7235,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7294,10 +7264,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7323,10 +7293,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7352,10 +7322,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7381,10 +7351,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7410,10 +7380,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7439,10 +7409,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7468,10 +7438,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7497,10 +7467,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7526,10 +7496,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7555,10 +7525,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7584,10 +7554,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7613,10 +7583,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7642,10 +7612,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7671,10 +7641,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7700,10 +7670,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7729,10 +7699,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7758,10 +7728,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7787,10 +7757,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7816,10 +7786,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7845,10 +7815,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7874,10 +7844,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7903,10 +7873,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7932,10 +7902,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7961,10 +7931,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7990,10 +7960,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8019,10 +7989,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8048,10 +8018,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8077,10 +8047,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8106,10 +8076,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8135,10 +8105,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8164,10 +8134,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8193,10 +8163,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8222,10 +8192,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8251,10 +8221,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -8280,10 +8250,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8309,10 +8279,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>7</v>
@@ -8338,10 +8308,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8367,10 +8337,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8396,10 +8366,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8425,10 +8395,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8454,10 +8424,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8483,10 +8453,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8512,10 +8482,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8541,10 +8511,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8570,10 +8540,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>5</v>
@@ -8599,10 +8569,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8628,10 +8598,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8657,10 +8627,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8686,10 +8656,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8715,10 +8685,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8744,10 +8714,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8773,10 +8743,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8802,10 +8772,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8831,10 +8801,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8860,10 +8830,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8889,10 +8859,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8918,10 +8888,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8947,10 +8917,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8976,10 +8946,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9005,10 +8975,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9034,10 +9004,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9063,10 +9033,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -9092,10 +9062,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9121,10 +9091,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9150,10 +9120,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9179,10 +9149,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9208,10 +9178,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9237,10 +9207,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9266,10 +9236,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9295,10 +9265,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9324,10 +9294,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9353,10 +9323,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9382,10 +9352,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9411,10 +9381,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9440,10 +9410,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9469,10 +9439,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9498,10 +9468,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9527,10 +9497,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9556,10 +9526,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9585,10 +9555,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9614,10 +9584,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9643,10 +9613,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9672,10 +9642,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9701,10 +9671,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9730,10 +9700,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -9759,10 +9729,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9788,10 +9758,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9817,10 +9787,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9846,10 +9816,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9875,10 +9845,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9904,10 +9874,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9933,10 +9903,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G245" t="n">
         <v>4</v>
@@ -9962,10 +9932,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>20</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -9991,10 +9961,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10020,10 +9990,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10049,10 +10019,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10078,10 +10048,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10107,10 +10077,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10136,10 +10106,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10165,10 +10135,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10194,10 +10164,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10223,10 +10193,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>16</v>
       </c>
       <c r="G255" t="n">
         <v>5</v>
@@ -10252,10 +10222,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -10281,10 +10251,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G257" t="n">
         <v>9</v>
@@ -10310,10 +10280,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10339,10 +10309,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G259" t="n">
         <v>8</v>
@@ -10368,10 +10338,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10397,10 +10367,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G261" t="n">
         <v>3</v>
@@ -10426,10 +10396,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F262" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10455,10 +10425,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10484,10 +10454,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F264" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10513,10 +10483,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10542,10 +10512,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -10571,10 +10541,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F267" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10600,10 +10570,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F268" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G268" t="n">
         <v>19</v>
@@ -10629,10 +10599,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F269" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10658,10 +10628,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -10687,10 +10657,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10716,10 +10686,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G272" t="n">
         <v>5</v>
@@ -10745,10 +10715,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>142</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10803,10 +10773,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10832,10 +10802,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F276" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10861,10 +10831,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>6</v>
@@ -10890,10 +10860,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>341</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10919,10 +10889,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F279" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10948,10 +10918,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10977,10 +10947,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11006,10 +10976,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11035,10 +11005,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11064,10 +11034,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11093,10 +11063,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11122,10 +11092,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11151,10 +11121,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11180,10 +11150,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11209,10 +11179,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11238,10 +11208,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11267,10 +11237,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F291" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11296,10 +11266,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11325,10 +11295,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11354,10 +11324,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11383,10 +11353,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11412,10 +11382,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11441,10 +11411,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11470,10 +11440,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11499,10 +11469,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11528,10 +11498,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11557,10 +11527,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11586,10 +11556,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11615,10 +11585,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11644,10 +11614,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11673,10 +11643,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>407</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11702,10 +11672,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11731,10 +11701,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11760,10 +11730,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11789,10 +11759,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11818,10 +11788,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F310" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11847,10 +11817,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11876,10 +11846,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11905,10 +11875,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11934,10 +11904,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -11963,10 +11933,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11992,10 +11962,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12021,10 +11991,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12050,10 +12020,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F318" t="s">
-        <v>532</v>
+        <v>142</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12079,10 +12049,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12108,10 +12078,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12137,10 +12107,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12166,10 +12136,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12195,10 +12165,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F323" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G323" t="n">
         <v>4</v>
@@ -12253,10 +12223,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12282,10 +12252,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12311,10 +12281,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12340,10 +12310,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12398,10 +12368,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F330" t="s">
-        <v>626</v>
+        <v>367</v>
       </c>
       <c r="G330" t="n">
         <v>5</v>
@@ -12427,10 +12397,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F331" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12456,10 +12426,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F332" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12485,10 +12455,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F333" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G333" t="n">
         <v>15</v>
@@ -12514,10 +12484,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F334" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -12543,10 +12513,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F335" t="s">
-        <v>636</v>
+        <v>469</v>
       </c>
       <c r="G335" t="n">
         <v>8</v>
@@ -12572,10 +12542,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F336" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G336" t="n">
         <v>6</v>
@@ -12601,10 +12571,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F337" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12630,10 +12600,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F338" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G338" t="n">
         <v>5</v>
@@ -12659,10 +12629,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F339" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12688,10 +12658,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F340" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12717,10 +12687,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12746,10 +12716,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F342" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12775,10 +12745,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F343" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G343" t="n">
         <v>4</v>
@@ -12804,10 +12774,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F344" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12833,10 +12803,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F345" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -12862,10 +12832,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F346" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12891,10 +12861,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F347" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12920,10 +12890,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F348" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12949,10 +12919,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F349" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12978,10 +12948,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F350" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13007,10 +12977,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F351" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13036,10 +13006,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F352" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13065,10 +13035,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F353" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13094,10 +13064,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F354" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13123,10 +13093,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13152,10 +13122,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13181,10 +13151,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13210,10 +13180,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13239,10 +13209,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13268,10 +13238,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13297,10 +13267,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13326,10 +13296,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F362" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13355,10 +13325,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F363" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13384,10 +13354,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F364" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13413,10 +13383,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F365" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G365" t="n">
         <v>4</v>
@@ -13442,10 +13412,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F366" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13471,10 +13441,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F367" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13500,10 +13470,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F368" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13529,10 +13499,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13558,10 +13528,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F370" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13587,10 +13557,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F371" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13616,10 +13586,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F372" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13645,10 +13615,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F373" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13674,10 +13644,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F374" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13703,10 +13673,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F375" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13732,10 +13702,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F376" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13761,10 +13731,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F377" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13790,10 +13760,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F378" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13819,10 +13789,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13848,10 +13818,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F380" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13877,10 +13847,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F381" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13906,10 +13876,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F382" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13935,10 +13905,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F383" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13964,10 +13934,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F384" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13993,10 +13963,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F385" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14022,10 +13992,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14051,10 +14021,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F387" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14080,10 +14050,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F388" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14109,10 +14079,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F389" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14138,10 +14108,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14167,10 +14137,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F391" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14196,10 +14166,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F392" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14225,10 +14195,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F393" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14254,10 +14224,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F394" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -14283,10 +14253,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F395" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14312,10 +14282,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F396" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14341,10 +14311,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F397" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14370,10 +14340,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F398" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14399,10 +14369,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F399" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14428,10 +14398,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F400" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14457,10 +14427,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14486,10 +14456,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F402" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14515,10 +14485,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F403" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14544,10 +14514,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F404" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14573,10 +14543,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F405" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14602,10 +14572,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F406" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14631,10 +14601,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F407" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14660,10 +14630,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F408" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14689,10 +14659,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F409" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14718,10 +14688,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F410" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14747,10 +14717,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F411" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14776,10 +14746,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F412" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14805,10 +14775,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F413" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14834,10 +14804,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F414" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14863,10 +14833,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F415" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14892,10 +14862,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F416" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14921,10 +14891,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F417" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14950,10 +14920,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F418" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14979,10 +14949,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F419" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15008,10 +14978,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F420" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15037,10 +15007,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F421" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15066,10 +15036,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F422" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15095,10 +15065,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F423" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15124,10 +15094,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F424" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15153,10 +15123,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F425" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15182,10 +15152,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F426" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15211,10 +15181,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F427" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15240,10 +15210,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F428" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15269,10 +15239,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F429" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15298,10 +15268,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F430" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G430" t="n">
         <v>3</v>
@@ -15327,10 +15297,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F431" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15356,10 +15326,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F432" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15385,10 +15355,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F433" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15414,10 +15384,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F434" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>

--- a/xlsx/教育_intext.xlsx
+++ b/xlsx/教育_intext.xlsx
@@ -29,7 +29,7 @@
     <t>教育 (專輯)</t>
   </si>
   <si>
-    <t>政策_政策_加州_教育</t>
+    <t>体育运动_体育运动_体育_教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%95%8C_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
